--- a/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.347597029955603</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.320697591499784</v>
+        <v>1.320697591499785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.286811945533107</v>
@@ -649,7 +649,7 @@
         <v>2.088521590895295</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2460596109322142</v>
+        <v>0.2460596109322145</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.648346601025475</v>
+        <v>0.7029558232936223</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.624714260424813</v>
+        <v>-3.505721755741054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8213217610636978</v>
+        <v>0.8855594515837806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.6995914643019</v>
+        <v>-3.874189036484578</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07464105139487787</v>
+        <v>0.1589583284618238</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6634689421335723</v>
+        <v>-0.6452568487586792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1654897032427852</v>
+        <v>0.1740980471975536</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5053530239852859</v>
+        <v>-0.5320940733831363</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.692127569759585</v>
+        <v>5.537478413002909</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.499592331720916</v>
+        <v>1.735103550278113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.057166044430186</v>
+        <v>6.255522109437842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.051213013506803</v>
+        <v>6.235980593188722</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.058835582259468</v>
+        <v>4.555034382239164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4697405481111357</v>
+        <v>0.6474396435451585</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7.681784436405569</v>
+        <v>7.189281830320868</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.643573463137367</v>
+        <v>2.040412288892896</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.689050448454271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.028427407639215</v>
+        <v>2.028427407639216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.561401031797037</v>
@@ -749,7 +749,7 @@
         <v>0.1297026055660142</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2339279356906258</v>
+        <v>0.233927935690626</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.248322872715628</v>
+        <v>2.51083818646323</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.539524344354293</v>
+        <v>-1.447201588081559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.045512189490315</v>
+        <v>-2.00721712826223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.57899757562381</v>
+        <v>-2.408932476752065</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5731520702380313</v>
+        <v>0.5652858294950803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2440040385404655</v>
+        <v>-0.2542217611376172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3225500376747824</v>
+        <v>-0.3199144720147444</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2430188105539172</v>
+        <v>-0.2325359203308402</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.4733397478944</v>
+        <v>7.597015324309352</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.724538111064485</v>
+        <v>3.83208022738278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.285409123738307</v>
+        <v>3.627826115447395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.387518254263997</v>
+        <v>6.453563799617014</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.318376758340672</v>
+        <v>3.298822674928137</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.022323575135677</v>
+        <v>1.037688717577644</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8292659268435136</v>
+        <v>0.8801167521922313</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.991000018859549</v>
+        <v>1.028821717077769</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.198077884574964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.326307772227296</v>
+        <v>2.326307772227297</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4130859242767803</v>
@@ -849,7 +849,7 @@
         <v>0.2586825695485213</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3074702174876676</v>
+        <v>0.3074702174876678</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4070312430809879</v>
+        <v>-0.7109169838039725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.128460183006938</v>
+        <v>2.053733161717785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.222097233416005</v>
+        <v>-1.200490504650468</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7273129956252425</v>
+        <v>-1.045339664939561</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.08303443845428171</v>
+        <v>-0.1267026776820786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.273232260762807</v>
+        <v>0.2703290673054474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2289425338087339</v>
+        <v>-0.2239176207256676</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08040905028244662</v>
+        <v>-0.1041788538227895</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.559035383259701</v>
+        <v>4.314009546892285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.10451385848333</v>
+        <v>8.250737523825077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.88718395648269</v>
+        <v>3.841705991630388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.191694364753233</v>
+        <v>5.129259525368355</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.4230838736239</v>
+        <v>1.317053285380279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.554247246675619</v>
+        <v>1.657653672456132</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.145257634717144</v>
+        <v>1.184735530966393</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8872515140453316</v>
+        <v>0.8921471041102625</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5149086430800822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.177731629345725</v>
+        <v>2.177731629345729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9029064664402782</v>
@@ -949,7 +949,7 @@
         <v>0.0485752050730402</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2173210216393571</v>
+        <v>0.2173210216393575</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.017586436058732</v>
+        <v>1.214558740219793</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.648031899006454</v>
+        <v>3.404310927862626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.938374069098343</v>
+        <v>-3.1934230031263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.9850506635547932</v>
+        <v>-0.8612331603818912</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1508180194278279</v>
+        <v>0.1427145826113833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2997913973340091</v>
+        <v>0.2735654305590253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2326657882140414</v>
+        <v>-0.2507110477836162</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08528438157748622</v>
+        <v>-0.07423331613039121</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.262399117804303</v>
+        <v>7.59000313380336</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.74820270038459</v>
+        <v>11.4308309609431</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.097762648239204</v>
+        <v>3.823997224409906</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.121514514280794</v>
+        <v>5.258057337837923</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.452384784067639</v>
+        <v>2.385509165426031</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.541432008051074</v>
+        <v>1.565716441680867</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4925037805775282</v>
+        <v>0.43366482176635</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6053291770882685</v>
+        <v>0.6244068885200891</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.754015892320093</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.742639093887586</v>
+        <v>5.742639093887589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2927616657159438</v>
@@ -1049,7 +1049,7 @@
         <v>0.747792905283282</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4748633485402719</v>
+        <v>0.4748633485402721</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.569063464383014</v>
+        <v>-1.674247848317422</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4162417947507844</v>
+        <v>0.7318944896093668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.190537482435086</v>
+        <v>3.388866846212666</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.218539847841323</v>
+        <v>2.294616302275527</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1930284231357509</v>
+        <v>-0.1995301670969425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02935978729692505</v>
+        <v>0.04796818520439133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2195447651487956</v>
+        <v>0.2549410936987937</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1579601511904413</v>
+        <v>0.1616382473670836</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.730634763056767</v>
+        <v>5.799002656325913</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.947272893945602</v>
+        <v>10.03097571998917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.21756420214999</v>
+        <v>12.5400667798891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.924509826156893</v>
+        <v>9.093905119553394</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.030547405609642</v>
+        <v>1.106827628226904</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.09268808433002</v>
+        <v>1.142402394918494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.439501820345396</v>
+        <v>1.488977417150235</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9095293025724621</v>
+        <v>0.8932869169169612</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.364165575746707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.834502668312788</v>
+        <v>5.834502668312785</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2652866171889876</v>
@@ -1149,7 +1149,7 @@
         <v>1.132653126544683</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4321135369239882</v>
+        <v>0.432113536923988</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.819033603012902</v>
+        <v>-2.710813755731649</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4466451116370163</v>
+        <v>0.4511852718859735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.626001959798458</v>
+        <v>3.550318289166531</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.77306611219362</v>
+        <v>1.392475650628381</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1429942060837993</v>
+        <v>-0.186835856590846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.009085438176301731</v>
+        <v>0.01123286812925304</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3565805299169021</v>
+        <v>0.3849272910651593</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08932651465231067</v>
+        <v>0.08785280920664607</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.04979607373475</v>
+        <v>7.808625235959138</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.75614863977805</v>
+        <v>11.62636639113359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.01087146656386</v>
+        <v>13.47931057753043</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.07623231817606</v>
+        <v>9.798606080114464</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9988648184977333</v>
+        <v>0.9723859010474305</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.200461496221497</v>
+        <v>1.184984434135668</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.44293546310633</v>
+        <v>2.611462757430411</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8596484902914437</v>
+        <v>0.8840782206063149</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.54879577654613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.123440739850198</v>
+        <v>6.123440739850194</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2376411674929722</v>
@@ -1249,7 +1249,7 @@
         <v>0.6987773827414526</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2986597712524448</v>
+        <v>0.2986597712524445</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.996947247784797</v>
+        <v>-3.630013234715484</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.563395127049909</v>
+        <v>4.096636933721907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.551903161912536</v>
+        <v>3.942537192163199</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.042807260898618</v>
+        <v>0.7127829700312245</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3291514637499933</v>
+        <v>-0.3184365223704727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1874402751539298</v>
+        <v>0.2023843000946138</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2555431560546343</v>
+        <v>0.234434041667968</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.03572493800808251</v>
+        <v>0.02910033152813656</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.573036713548662</v>
+        <v>6.961553345824504</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.58276705323921</v>
+        <v>17.06948033670922</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.69420499888703</v>
+        <v>17.04442039234939</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.79531922619286</v>
+        <v>10.85856726269317</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.1110850091179</v>
+        <v>1.168835972334561</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.465164532290271</v>
+        <v>1.519509202673677</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.420393950309232</v>
+        <v>1.400659967501292</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6178236847161129</v>
+        <v>0.6165445270219516</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>4.362123619370288</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.079682879528787</v>
+        <v>4.079682879528788</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6731651055493908</v>
@@ -1349,7 +1349,7 @@
         <v>0.5911428078144881</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3868362450805542</v>
+        <v>0.3868362450805544</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.156045011528925</v>
+        <v>2.192042717674228</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.723766868460027</v>
+        <v>3.847366613447403</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.985043841671992</v>
+        <v>2.931170786172481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.698510105916041</v>
+        <v>2.597225896839241</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3753259384888453</v>
+        <v>0.3939408665181782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4231511422219462</v>
+        <v>0.4395186328093492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3722768097075722</v>
+        <v>0.3556250299461525</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2319151400132651</v>
+        <v>0.2275759797886192</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.756395595915502</v>
+        <v>4.70644845388074</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.733358023141478</v>
+        <v>6.709564179728986</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.902908623161367</v>
+        <v>5.708899799897568</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.543826313231855</v>
+        <v>5.517202511865158</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.029987815014734</v>
+        <v>1.038189944545483</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9291468618706976</v>
+        <v>0.903125144337968</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8858178656242568</v>
+        <v>0.8439307584611713</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5700335657100254</v>
+        <v>0.5651397817604823</v>
       </c>
     </row>
     <row r="28">
